--- a/adm/16_Jan_12_14_Grades-5100-B1-2E16;Programmering_og_problemløsning.xlsx
+++ b/adm/16_Jan_12_14_Grades-5100-B1-2E16;Programmering_og_problemløsning.xlsx
@@ -4,14 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="30580" yWindow="1100" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_16_Jan_12_14_Grades_5100_B1_2E16_Programmering_og_problemløsning" localSheetId="0">Sheet1!$A$1:$R$235</definedName>
   </definedNames>
@@ -27,7 +24,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="16_Jan_12_14_Grades-5100-B1-2E16;Programmering_og_problemløsning.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:sporring:Downloads:16_Jan_12_14_Grades-5100-B1-2E16;Programmering_og_problemløsning.csv" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:sporring:Downloads:16_Jan_12_14_Grades-5100-B1-2E16;Programmering_og_problemløsning.csv" comma="1">
       <textFields count="42">
         <textField/>
         <textField/>
@@ -78,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="495">
   <si>
     <t>Student</t>
   </si>
@@ -1554,13 +1551,25 @@
   </si>
   <si>
     <t>Akkumuleret histogram</t>
+  </si>
+  <si>
+    <t>Flere end 1 opgave</t>
+  </si>
+  <si>
+    <t>Flere end 7 opgaver</t>
+  </si>
+  <si>
+    <t>Anslået beståelsesprocent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1580,6 +1589,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1626,7 +1642,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1710,16 +1726,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1761,6 +1799,16 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1802,165 +1850,21 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="235">
-          <cell r="B235" t="str">
-            <v>Histogram</v>
-          </cell>
-          <cell r="C235" t="str">
-            <v>Akkumuleret histogram</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236">
-            <v>1</v>
-          </cell>
-          <cell r="B236">
-            <v>6</v>
-          </cell>
-          <cell r="C236">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237">
-            <v>2</v>
-          </cell>
-          <cell r="B237">
-            <v>4</v>
-          </cell>
-          <cell r="C237">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238">
-            <v>3</v>
-          </cell>
-          <cell r="B238">
-            <v>4</v>
-          </cell>
-          <cell r="C238">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239">
-            <v>4</v>
-          </cell>
-          <cell r="B239">
-            <v>4</v>
-          </cell>
-          <cell r="C239">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="A240">
-            <v>5</v>
-          </cell>
-          <cell r="B240">
-            <v>3</v>
-          </cell>
-          <cell r="C240">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="A241">
-            <v>6</v>
-          </cell>
-          <cell r="B241">
-            <v>4</v>
-          </cell>
-          <cell r="C241">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="A242">
-            <v>7</v>
-          </cell>
-          <cell r="B242">
-            <v>10</v>
-          </cell>
-          <cell r="C242">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="A243">
-            <v>8</v>
-          </cell>
-          <cell r="B243">
-            <v>31</v>
-          </cell>
-          <cell r="C243">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="A244">
-            <v>9</v>
-          </cell>
-          <cell r="B244">
-            <v>57</v>
-          </cell>
-          <cell r="C244">
-            <v>123</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="A245">
-            <v>10</v>
-          </cell>
-          <cell r="B245">
-            <v>95</v>
-          </cell>
-          <cell r="C245">
-            <v>218</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="A246">
-            <v>11</v>
-          </cell>
-          <cell r="B246">
-            <v>0</v>
-          </cell>
-          <cell r="C246">
-            <v>218</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247">
-            <v>12</v>
-          </cell>
-          <cell r="B247">
-            <v>0</v>
-          </cell>
-          <cell r="C247">
-            <v>218</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2291,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="D250" sqref="D250"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A237" sqref="A237:F250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2372,7 +2276,7 @@
         <v>17</v>
       </c>
       <c r="F2">
-        <f>SUM(G2:R2)</f>
+        <f t="shared" ref="F2:F46" si="0">SUM(G2:R2)</f>
         <v>12</v>
       </c>
       <c r="G2">
@@ -2429,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="4">
-        <f>SUM(G3:R3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="4">
@@ -2453,7 +2357,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="4">
-        <f>SUM(G4:R4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2474,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <f>SUM(G5:R5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="4">
@@ -2498,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="4">
-        <f>SUM(G6:R6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="4">
@@ -2522,7 +2426,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="4">
-        <f>SUM(G7:R7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2543,7 +2447,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="4">
-        <f>SUM(G8:R8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2564,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="4">
-        <f>SUM(G9:R9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2585,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <f>SUM(G10:R10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P10" s="4">
@@ -2609,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="4">
-        <f>SUM(G11:R11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="4">
@@ -2633,7 +2537,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="4">
-        <f>SUM(G12:R12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2654,7 +2558,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="4">
-        <f>SUM(G13:R13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2675,7 +2579,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="4">
-        <f>SUM(G14:R14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="4">
@@ -2699,7 +2603,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="4">
-        <f>SUM(G15:R15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G15" s="4">
@@ -2723,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="4">
-        <f>SUM(G16:R16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G16" s="4">
@@ -2747,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="4">
-        <f>SUM(G17:R17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G17" s="4">
@@ -2771,7 +2675,7 @@
         <v>56</v>
       </c>
       <c r="F18" s="4">
-        <f>SUM(G18:R18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G18" s="4">
@@ -2795,7 +2699,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="4">
-        <f>SUM(G19:R19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G19" s="4">
@@ -2825,7 +2729,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="4">
-        <f>SUM(G20:R20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G20" s="4">
@@ -2849,7 +2753,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="4">
-        <f>SUM(G21:R21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G21" s="4">
@@ -2879,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="4">
-        <f>SUM(G22:R22)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G22" s="4">
@@ -2906,7 +2810,7 @@
         <v>99</v>
       </c>
       <c r="F23" s="4">
-        <f>SUM(G23:R23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G23" s="4">
@@ -2933,7 +2837,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="4">
-        <f>SUM(G24:R24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H24" s="4">
@@ -2966,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="4">
-        <f>SUM(G25:R25)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G25" s="4">
@@ -2996,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="F26" s="4">
-        <f>SUM(G26:R26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G26" s="4">
@@ -3026,7 +2930,7 @@
         <v>43</v>
       </c>
       <c r="F27" s="4">
-        <f>SUM(G27:R27)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G27" s="4">
@@ -3056,7 +2960,7 @@
         <v>43</v>
       </c>
       <c r="F28" s="4">
-        <f>SUM(G28:R28)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G28" s="4">
@@ -3086,7 +2990,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="4">
-        <f>SUM(G29:R29)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G29" s="4">
@@ -3125,7 +3029,7 @@
         <v>99</v>
       </c>
       <c r="F30" s="4">
-        <f>SUM(G30:R30)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G30" s="4">
@@ -3164,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="4">
-        <f>SUM(G31:R31)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G31" s="4">
@@ -3209,7 +3113,7 @@
         <v>9</v>
       </c>
       <c r="F32" s="4">
-        <f>SUM(G32:R32)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G32" s="4">
@@ -3248,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="4">
-        <f>SUM(G33:R33)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G33" s="4">
@@ -3287,7 +3191,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="3">
-        <f>SUM(G34:R34)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G34" s="3">
@@ -3326,7 +3230,7 @@
         <v>99</v>
       </c>
       <c r="F35" s="3">
-        <f>SUM(G35:R35)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G35" s="3">
@@ -3371,7 +3275,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="3">
-        <f>SUM(G36:R36)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G36" s="3">
@@ -3413,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="F37" s="3">
-        <f>SUM(G37:R37)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G37" s="3">
@@ -3455,7 +3359,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="3">
-        <f>SUM(G38:R38)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G38" s="3">
@@ -3497,7 +3401,7 @@
         <v>28</v>
       </c>
       <c r="F39" s="3">
-        <f>SUM(G39:R39)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G39" s="3">
@@ -3545,7 +3449,7 @@
         <v>99</v>
       </c>
       <c r="F40" s="3">
-        <f>SUM(G40:R40)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G40" s="3">
@@ -3596,7 +3500,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="3">
-        <f>SUM(G41:R41)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G41" s="3">
@@ -3644,7 +3548,7 @@
         <v>28</v>
       </c>
       <c r="F42" s="3">
-        <f>SUM(G42:R42)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G42" s="3">
@@ -3695,7 +3599,7 @@
         <v>23</v>
       </c>
       <c r="F43" s="3">
-        <f>SUM(G43:R43)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G43" s="3">
@@ -3740,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="3">
-        <f>SUM(G44:R44)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G44" s="3">
@@ -3785,7 +3689,7 @@
         <v>28</v>
       </c>
       <c r="F45" s="3">
-        <f>SUM(G45:R45)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G45" s="3">
@@ -3830,7 +3734,7 @@
         <v>46</v>
       </c>
       <c r="F46" s="3">
-        <f>SUM(G46:R46)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G46" s="3">
@@ -3875,7 +3779,7 @@
         <v>46</v>
       </c>
       <c r="F48" s="2">
-        <f>SUM(G48:R48)</f>
+        <f t="shared" ref="F48:F79" si="1">SUM(G48:R48)</f>
         <v>8</v>
       </c>
       <c r="G48" s="2">
@@ -3928,7 +3832,7 @@
         <v>46</v>
       </c>
       <c r="F49" s="2">
-        <f>SUM(G49:R49)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G49" s="2">
@@ -3981,7 +3885,7 @@
         <v>46</v>
       </c>
       <c r="F50" s="2">
-        <f>SUM(G50:R50)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G50" s="2">
@@ -4032,7 +3936,7 @@
         <v>46</v>
       </c>
       <c r="F51" s="2">
-        <f>SUM(G51:R51)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G51" s="2">
@@ -4083,7 +3987,7 @@
         <v>46</v>
       </c>
       <c r="F52" s="2">
-        <f>SUM(G52:R52)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G52" s="2">
@@ -4134,7 +4038,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="2">
-        <f>SUM(G53:R53)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G53" s="2">
@@ -4182,7 +4086,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="2">
-        <f>SUM(G54:R54)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G54" s="2">
@@ -4230,7 +4134,7 @@
         <v>28</v>
       </c>
       <c r="F55" s="4">
-        <f>SUM(G55:R55)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G55" s="4">
@@ -4275,7 +4179,7 @@
         <v>28</v>
       </c>
       <c r="F56" s="2">
-        <f>SUM(G56:R56)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G56" s="2">
@@ -4326,7 +4230,7 @@
         <v>28</v>
       </c>
       <c r="F57" s="2">
-        <f>SUM(G57:R57)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G57" s="2">
@@ -4377,7 +4281,7 @@
         <v>28</v>
       </c>
       <c r="F58" s="2">
-        <f>SUM(G58:R58)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G58" s="2">
@@ -4428,7 +4332,7 @@
         <v>28</v>
       </c>
       <c r="F59" s="2">
-        <f>SUM(G59:R59)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G59" s="2">
@@ -4479,7 +4383,7 @@
         <v>28</v>
       </c>
       <c r="F60" s="2">
-        <f>SUM(G60:R60)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G60" s="2">
@@ -4530,7 +4434,7 @@
         <v>28</v>
       </c>
       <c r="F61" s="2">
-        <f>SUM(G61:R61)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G61" s="2">
@@ -4581,7 +4485,7 @@
         <v>28</v>
       </c>
       <c r="F62" s="2">
-        <f>SUM(G62:R62)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G62" s="2">
@@ -4632,7 +4536,7 @@
         <v>28</v>
       </c>
       <c r="F63" s="2">
-        <f>SUM(G63:R63)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G63" s="2">
@@ -4683,7 +4587,7 @@
         <v>28</v>
       </c>
       <c r="F64" s="2">
-        <f>SUM(G64:R64)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G64" s="2">
@@ -4734,7 +4638,7 @@
         <v>28</v>
       </c>
       <c r="F65" s="2">
-        <f>SUM(G65:R65)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G65" s="2">
@@ -4785,7 +4689,7 @@
         <v>28</v>
       </c>
       <c r="F66" s="2">
-        <f>SUM(G66:R66)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G66" s="2">
@@ -4836,7 +4740,7 @@
         <v>28</v>
       </c>
       <c r="F67" s="2">
-        <f>SUM(G67:R67)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G67" s="2">
@@ -4887,7 +4791,7 @@
         <v>28</v>
       </c>
       <c r="F68" s="2">
-        <f>SUM(G68:R68)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G68" s="2">
@@ -4938,7 +4842,7 @@
         <v>28</v>
       </c>
       <c r="F69" s="2">
-        <f>SUM(G69:R69)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G69" s="2">
@@ -4989,7 +4893,7 @@
         <v>28</v>
       </c>
       <c r="F70" s="2">
-        <f>SUM(G70:R70)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G70" s="2">
@@ -5040,7 +4944,7 @@
         <v>20</v>
       </c>
       <c r="F71" s="3">
-        <f>SUM(G71:R71)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G71" s="3">
@@ -5093,7 +4997,7 @@
         <v>20</v>
       </c>
       <c r="F72" s="2">
-        <f>SUM(G72:R72)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G72" s="2">
@@ -5144,7 +5048,7 @@
         <v>20</v>
       </c>
       <c r="F73" s="2">
-        <f>SUM(G73:R73)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G73" s="2">
@@ -5195,7 +5099,7 @@
         <v>20</v>
       </c>
       <c r="F74" s="2">
-        <f>SUM(G74:R74)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G74" s="2">
@@ -5246,7 +5150,7 @@
         <v>20</v>
       </c>
       <c r="F75" s="2">
-        <f>SUM(G75:R75)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G75" s="2">
@@ -5297,7 +5201,7 @@
         <v>20</v>
       </c>
       <c r="F76" s="2">
-        <f>SUM(G76:R76)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G76" s="2">
@@ -5348,7 +5252,7 @@
         <v>20</v>
       </c>
       <c r="F77" s="2">
-        <f>SUM(G77:R77)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G77" s="2">
@@ -5399,7 +5303,7 @@
         <v>20</v>
       </c>
       <c r="F78" s="2">
-        <f>SUM(G78:R78)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G78" s="2">
@@ -5450,7 +5354,7 @@
         <v>20</v>
       </c>
       <c r="F79" s="2">
-        <f>SUM(G79:R79)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G79" s="2">
@@ -5501,7 +5405,7 @@
         <v>20</v>
       </c>
       <c r="F80" s="2">
-        <f>SUM(G80:R80)</f>
+        <f t="shared" ref="F80:F111" si="2">SUM(G80:R80)</f>
         <v>9</v>
       </c>
       <c r="G80" s="2">
@@ -5552,7 +5456,7 @@
         <v>20</v>
       </c>
       <c r="F81" s="2">
-        <f>SUM(G81:R81)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G81" s="2">
@@ -5603,7 +5507,7 @@
         <v>20</v>
       </c>
       <c r="F82" s="2">
-        <f>SUM(G82:R82)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G82" s="2">
@@ -5654,7 +5558,7 @@
         <v>20</v>
       </c>
       <c r="F83" s="2">
-        <f>SUM(G83:R83)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G83" s="2">
@@ -5705,7 +5609,7 @@
         <v>56</v>
       </c>
       <c r="F84" s="2">
-        <f>SUM(G84:R84)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G84" s="2">
@@ -5753,7 +5657,7 @@
         <v>56</v>
       </c>
       <c r="F85" s="2">
-        <f>SUM(G85:R85)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G85" s="2">
@@ -5804,7 +5708,7 @@
         <v>31</v>
       </c>
       <c r="F86" s="2">
-        <f>SUM(G86:R86)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G86" s="2">
@@ -5855,7 +5759,7 @@
         <v>31</v>
       </c>
       <c r="F87" s="2">
-        <f>SUM(G87:R87)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G87" s="2">
@@ -5906,7 +5810,7 @@
         <v>31</v>
       </c>
       <c r="F88" s="2">
-        <f>SUM(G88:R88)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G88" s="2">
@@ -5957,7 +5861,7 @@
         <v>31</v>
       </c>
       <c r="F89" s="2">
-        <f>SUM(G89:R89)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G89" s="2">
@@ -6008,7 +5912,7 @@
         <v>49</v>
       </c>
       <c r="F90" s="2">
-        <f>SUM(G90:R90)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G90" s="2">
@@ -6056,7 +5960,7 @@
         <v>49</v>
       </c>
       <c r="F91" s="2">
-        <f>SUM(G91:R91)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G91" s="2">
@@ -6104,7 +6008,7 @@
         <v>49</v>
       </c>
       <c r="F92" s="2">
-        <f>SUM(G92:R92)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G92" s="2">
@@ -6152,7 +6056,7 @@
         <v>49</v>
       </c>
       <c r="F93" s="2">
-        <f>SUM(G93:R93)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G93" s="2">
@@ -6203,7 +6107,7 @@
         <v>43</v>
       </c>
       <c r="F94" s="2">
-        <f>SUM(G94:R94)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G94" s="2">
@@ -6248,7 +6152,7 @@
         <v>43</v>
       </c>
       <c r="F95" s="2">
-        <f>SUM(G95:R95)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G95" s="2">
@@ -6299,7 +6203,7 @@
         <v>99</v>
       </c>
       <c r="F96" s="2">
-        <f>SUM(G96:R96)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G96" s="2">
@@ -6350,7 +6254,7 @@
         <v>99</v>
       </c>
       <c r="F97" s="2">
-        <f>SUM(G97:R97)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G97" s="2">
@@ -6401,7 +6305,7 @@
         <v>99</v>
       </c>
       <c r="F98" s="2">
-        <f>SUM(G98:R98)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G98" s="2">
@@ -6452,7 +6356,7 @@
         <v>99</v>
       </c>
       <c r="F99" s="2">
-        <f>SUM(G99:R99)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G99" s="2">
@@ -6503,7 +6407,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="2">
-        <f>SUM(G100:R100)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G100" s="2">
@@ -6554,7 +6458,7 @@
         <v>99</v>
       </c>
       <c r="F101" s="2">
-        <f>SUM(G101:R101)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G101" s="2">
@@ -6605,7 +6509,7 @@
         <v>99</v>
       </c>
       <c r="F102" s="2">
-        <f>SUM(G102:R102)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G102" s="2">
@@ -6656,7 +6560,7 @@
         <v>99</v>
       </c>
       <c r="F103" s="2">
-        <f>SUM(G103:R103)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G103" s="2">
@@ -6707,7 +6611,7 @@
         <v>99</v>
       </c>
       <c r="F104" s="2">
-        <f>SUM(G104:R104)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G104" s="2">
@@ -6758,7 +6662,7 @@
         <v>99</v>
       </c>
       <c r="F105" s="2">
-        <f>SUM(G105:R105)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G105" s="2">
@@ -6809,7 +6713,7 @@
         <v>99</v>
       </c>
       <c r="F106" s="2">
-        <f>SUM(G106:R106)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G106" s="2">
@@ -6860,7 +6764,7 @@
         <v>99</v>
       </c>
       <c r="F107" s="2">
-        <f>SUM(G107:R107)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G107" s="2">
@@ -6911,7 +6815,7 @@
         <v>99</v>
       </c>
       <c r="F108" s="2">
-        <f>SUM(G108:R108)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G108" s="2">
@@ -6962,7 +6866,7 @@
         <v>99</v>
       </c>
       <c r="F109" s="2">
-        <f>SUM(G109:R109)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G109" s="2">
@@ -7013,7 +6917,7 @@
         <v>99</v>
       </c>
       <c r="F110" s="2">
-        <f>SUM(G110:R110)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G110" s="2">
@@ -7064,7 +6968,7 @@
         <v>99</v>
       </c>
       <c r="F111" s="2">
-        <f>SUM(G111:R111)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G111" s="2">
@@ -7115,7 +7019,7 @@
         <v>20</v>
       </c>
       <c r="F113" s="5">
-        <f>SUM(G113:R113)</f>
+        <f t="shared" ref="F113:F144" si="3">SUM(G113:R113)</f>
         <v>10</v>
       </c>
       <c r="G113" s="5">
@@ -7166,7 +7070,7 @@
         <v>23</v>
       </c>
       <c r="F114" s="5">
-        <f>SUM(G114:R114)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G114" s="5">
@@ -7217,7 +7121,7 @@
         <v>28</v>
       </c>
       <c r="F115" s="5">
-        <f>SUM(G115:R115)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G115" s="5">
@@ -7268,7 +7172,7 @@
         <v>31</v>
       </c>
       <c r="F116" s="5">
-        <f>SUM(G116:R116)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G116" s="5">
@@ -7319,7 +7223,7 @@
         <v>31</v>
       </c>
       <c r="F117" s="5">
-        <f>SUM(G117:R117)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G117" s="5">
@@ -7370,7 +7274,7 @@
         <v>38</v>
       </c>
       <c r="F118" s="5">
-        <f>SUM(G118:R118)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G118" s="5">
@@ -7421,7 +7325,7 @@
         <v>31</v>
       </c>
       <c r="F119" s="5">
-        <f>SUM(G119:R119)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G119" s="5">
@@ -7472,7 +7376,7 @@
         <v>46</v>
       </c>
       <c r="F120" s="5">
-        <f>SUM(G120:R120)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G120" s="5">
@@ -7523,7 +7427,7 @@
         <v>49</v>
       </c>
       <c r="F121" s="5">
-        <f>SUM(G121:R121)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G121" s="5">
@@ -7574,7 +7478,7 @@
         <v>23</v>
       </c>
       <c r="F122" s="5">
-        <f>SUM(G122:R122)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G122" s="5">
@@ -7625,7 +7529,7 @@
         <v>31</v>
       </c>
       <c r="F123" s="5">
-        <f>SUM(G123:R123)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G123" s="5">
@@ -7676,7 +7580,7 @@
         <v>56</v>
       </c>
       <c r="F124" s="5">
-        <f>SUM(G124:R124)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G124" s="5">
@@ -7727,7 +7631,7 @@
         <v>31</v>
       </c>
       <c r="F125" s="5">
-        <f>SUM(G125:R125)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G125" s="5">
@@ -7778,7 +7682,7 @@
         <v>49</v>
       </c>
       <c r="F126" s="5">
-        <f>SUM(G126:R126)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G126" s="5">
@@ -7829,7 +7733,7 @@
         <v>43</v>
       </c>
       <c r="F127" s="5">
-        <f>SUM(G127:R127)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G127" s="5">
@@ -7880,7 +7784,7 @@
         <v>49</v>
       </c>
       <c r="F128" s="5">
-        <f>SUM(G128:R128)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G128" s="5">
@@ -7931,7 +7835,7 @@
         <v>46</v>
       </c>
       <c r="F129" s="5">
-        <f>SUM(G129:R129)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G129" s="5">
@@ -7982,7 +7886,7 @@
         <v>46</v>
       </c>
       <c r="F130" s="5">
-        <f>SUM(G130:R130)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G130" s="5">
@@ -8033,7 +7937,7 @@
         <v>49</v>
       </c>
       <c r="F131" s="5">
-        <f>SUM(G131:R131)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G131" s="5">
@@ -8084,7 +7988,7 @@
         <v>31</v>
       </c>
       <c r="F132" s="5">
-        <f>SUM(G132:R132)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G132" s="5">
@@ -8135,7 +8039,7 @@
         <v>28</v>
       </c>
       <c r="F133" s="5">
-        <f>SUM(G133:R133)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G133" s="5">
@@ -8186,7 +8090,7 @@
         <v>49</v>
       </c>
       <c r="F134" s="5">
-        <f>SUM(G134:R134)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G134" s="5">
@@ -8237,7 +8141,7 @@
         <v>23</v>
       </c>
       <c r="F135" s="5">
-        <f>SUM(G135:R135)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G135" s="5">
@@ -8288,7 +8192,7 @@
         <v>23</v>
       </c>
       <c r="F136" s="5">
-        <f>SUM(G136:R136)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G136" s="5">
@@ -8339,7 +8243,7 @@
         <v>20</v>
       </c>
       <c r="F137" s="5">
-        <f>SUM(G137:R137)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G137" s="5">
@@ -8390,7 +8294,7 @@
         <v>56</v>
       </c>
       <c r="F138" s="5">
-        <f>SUM(G138:R138)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G138" s="5">
@@ -8441,7 +8345,7 @@
         <v>31</v>
       </c>
       <c r="F139" s="5">
-        <f>SUM(G139:R139)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G139" s="5">
@@ -8492,7 +8396,7 @@
         <v>23</v>
       </c>
       <c r="F140" s="5">
-        <f>SUM(G140:R140)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G140" s="5">
@@ -8543,7 +8447,7 @@
         <v>23</v>
       </c>
       <c r="F141" s="5">
-        <f>SUM(G141:R141)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G141" s="5">
@@ -8594,7 +8498,7 @@
         <v>23</v>
       </c>
       <c r="F142" s="5">
-        <f>SUM(G142:R142)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G142" s="5">
@@ -8645,7 +8549,7 @@
         <v>31</v>
       </c>
       <c r="F143" s="5">
-        <f>SUM(G143:R143)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G143" s="5">
@@ -8696,7 +8600,7 @@
         <v>23</v>
       </c>
       <c r="F144" s="5">
-        <f>SUM(G144:R144)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G144" s="5">
@@ -8747,7 +8651,7 @@
         <v>56</v>
       </c>
       <c r="F145" s="5">
-        <f>SUM(G145:R145)</f>
+        <f t="shared" ref="F145:F176" si="4">SUM(G145:R145)</f>
         <v>10</v>
       </c>
       <c r="G145" s="5">
@@ -8798,7 +8702,7 @@
         <v>43</v>
       </c>
       <c r="F146" s="5">
-        <f>SUM(G146:R146)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G146" s="5">
@@ -8849,7 +8753,7 @@
         <v>56</v>
       </c>
       <c r="F147" s="5">
-        <f>SUM(G147:R147)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G147" s="5">
@@ -8900,7 +8804,7 @@
         <v>23</v>
       </c>
       <c r="F148" s="5">
-        <f>SUM(G148:R148)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G148" s="5">
@@ -8951,7 +8855,7 @@
         <v>56</v>
       </c>
       <c r="F149" s="5">
-        <f>SUM(G149:R149)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G149" s="5">
@@ -9002,7 +8906,7 @@
         <v>28</v>
       </c>
       <c r="F150" s="5">
-        <f>SUM(G150:R150)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G150" s="5">
@@ -9053,7 +8957,7 @@
         <v>56</v>
       </c>
       <c r="F151" s="5">
-        <f>SUM(G151:R151)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G151" s="5">
@@ -9104,7 +9008,7 @@
         <v>31</v>
       </c>
       <c r="F152" s="5">
-        <f>SUM(G152:R152)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G152" s="5">
@@ -9155,7 +9059,7 @@
         <v>23</v>
       </c>
       <c r="F153" s="5">
-        <f>SUM(G153:R153)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G153" s="5">
@@ -9206,7 +9110,7 @@
         <v>56</v>
       </c>
       <c r="F154" s="5">
-        <f>SUM(G154:R154)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G154" s="5">
@@ -9257,7 +9161,7 @@
         <v>49</v>
       </c>
       <c r="F155" s="5">
-        <f>SUM(G155:R155)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G155" s="5">
@@ -9308,7 +9212,7 @@
         <v>23</v>
       </c>
       <c r="F156" s="5">
-        <f>SUM(G156:R156)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G156" s="5">
@@ -9359,7 +9263,7 @@
         <v>23</v>
       </c>
       <c r="F157" s="5">
-        <f>SUM(G157:R157)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G157" s="5">
@@ -9410,7 +9314,7 @@
         <v>49</v>
       </c>
       <c r="F158" s="5">
-        <f>SUM(G158:R158)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G158" s="5">
@@ -9461,7 +9365,7 @@
         <v>43</v>
       </c>
       <c r="F159" s="5">
-        <f>SUM(G159:R159)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G159" s="5">
@@ -9512,7 +9416,7 @@
         <v>28</v>
       </c>
       <c r="F160" s="5">
-        <f>SUM(G160:R160)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G160" s="5">
@@ -9563,7 +9467,7 @@
         <v>23</v>
       </c>
       <c r="F161" s="5">
-        <f>SUM(G161:R161)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G161" s="5">
@@ -9614,7 +9518,7 @@
         <v>31</v>
       </c>
       <c r="F162" s="5">
-        <f>SUM(G162:R162)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G162" s="5">
@@ -9665,7 +9569,7 @@
         <v>28</v>
       </c>
       <c r="F163" s="5">
-        <f>SUM(G163:R163)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G163" s="5">
@@ -9716,7 +9620,7 @@
         <v>46</v>
       </c>
       <c r="F164" s="5">
-        <f>SUM(G164:R164)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G164" s="5">
@@ -9767,7 +9671,7 @@
         <v>23</v>
       </c>
       <c r="F165" s="5">
-        <f>SUM(G165:R165)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G165" s="5">
@@ -9818,7 +9722,7 @@
         <v>56</v>
       </c>
       <c r="F166" s="5">
-        <f>SUM(G166:R166)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G166" s="5">
@@ -9869,7 +9773,7 @@
         <v>28</v>
       </c>
       <c r="F167" s="5">
-        <f>SUM(G167:R167)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G167" s="5">
@@ -9920,7 +9824,7 @@
         <v>31</v>
       </c>
       <c r="F168" s="5">
-        <f>SUM(G168:R168)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G168" s="5">
@@ -9971,7 +9875,7 @@
         <v>28</v>
       </c>
       <c r="F169" s="5">
-        <f>SUM(G169:R169)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G169" s="5">
@@ -10022,7 +9926,7 @@
         <v>31</v>
       </c>
       <c r="F170" s="5">
-        <f>SUM(G170:R170)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G170" s="5">
@@ -10073,7 +9977,7 @@
         <v>38</v>
       </c>
       <c r="F171" s="5">
-        <f>SUM(G171:R171)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G171" s="5">
@@ -10124,7 +10028,7 @@
         <v>43</v>
       </c>
       <c r="F172" s="5">
-        <f>SUM(G172:R172)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G172" s="5">
@@ -10175,7 +10079,7 @@
         <v>49</v>
       </c>
       <c r="F173" s="5">
-        <f>SUM(G173:R173)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G173" s="5">
@@ -10226,7 +10130,7 @@
         <v>23</v>
       </c>
       <c r="F174" s="5">
-        <f>SUM(G174:R174)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G174" s="5">
@@ -10277,7 +10181,7 @@
         <v>31</v>
       </c>
       <c r="F175" s="5">
-        <f>SUM(G175:R175)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G175" s="5">
@@ -10328,7 +10232,7 @@
         <v>20</v>
       </c>
       <c r="F176" s="5">
-        <f>SUM(G176:R176)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G176" s="5">
@@ -10379,7 +10283,7 @@
         <v>46</v>
       </c>
       <c r="F177" s="5">
-        <f>SUM(G177:R177)</f>
+        <f t="shared" ref="F177:F208" si="5">SUM(G177:R177)</f>
         <v>10</v>
       </c>
       <c r="G177" s="5">
@@ -10430,7 +10334,7 @@
         <v>28</v>
       </c>
       <c r="F178" s="5">
-        <f>SUM(G178:R178)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G178" s="5">
@@ -10481,7 +10385,7 @@
         <v>56</v>
       </c>
       <c r="F179" s="5">
-        <f>SUM(G179:R179)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G179" s="5">
@@ -10532,7 +10436,7 @@
         <v>56</v>
       </c>
       <c r="F180" s="5">
-        <f>SUM(G180:R180)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G180" s="5">
@@ -10583,7 +10487,7 @@
         <v>23</v>
       </c>
       <c r="F181" s="5">
-        <f>SUM(G181:R181)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G181" s="5">
@@ -10634,7 +10538,7 @@
         <v>31</v>
       </c>
       <c r="F182" s="5">
-        <f>SUM(G182:R182)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G182" s="5">
@@ -10685,7 +10589,7 @@
         <v>46</v>
       </c>
       <c r="F183" s="5">
-        <f>SUM(G183:R183)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G183" s="5">
@@ -10736,7 +10640,7 @@
         <v>46</v>
       </c>
       <c r="F184" s="5">
-        <f>SUM(G184:R184)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G184" s="5">
@@ -10787,7 +10691,7 @@
         <v>43</v>
       </c>
       <c r="F185" s="5">
-        <f>SUM(G185:R185)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G185" s="5">
@@ -10838,7 +10742,7 @@
         <v>46</v>
       </c>
       <c r="F186" s="5">
-        <f>SUM(G186:R186)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G186" s="5">
@@ -10889,7 +10793,7 @@
         <v>46</v>
       </c>
       <c r="F187" s="5">
-        <f>SUM(G187:R187)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G187" s="5">
@@ -10940,7 +10844,7 @@
         <v>46</v>
       </c>
       <c r="F188" s="5">
-        <f>SUM(G188:R188)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G188" s="5">
@@ -10991,7 +10895,7 @@
         <v>28</v>
       </c>
       <c r="F189" s="5">
-        <f>SUM(G189:R189)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G189" s="5">
@@ -11042,7 +10946,7 @@
         <v>28</v>
       </c>
       <c r="F190" s="5">
-        <f>SUM(G190:R190)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G190" s="5">
@@ -11093,7 +10997,7 @@
         <v>46</v>
       </c>
       <c r="F191" s="5">
-        <f>SUM(G191:R191)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G191" s="5">
@@ -11144,7 +11048,7 @@
         <v>23</v>
       </c>
       <c r="F192" s="5">
-        <f>SUM(G192:R192)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G192" s="5">
@@ -11195,7 +11099,7 @@
         <v>43</v>
       </c>
       <c r="F193" s="5">
-        <f>SUM(G193:R193)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G193" s="5">
@@ -11246,7 +11150,7 @@
         <v>43</v>
       </c>
       <c r="F194" s="5">
-        <f>SUM(G194:R194)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G194" s="5">
@@ -11297,7 +11201,7 @@
         <v>46</v>
       </c>
       <c r="F195" s="5">
-        <f>SUM(G195:R195)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G195" s="5">
@@ -11348,7 +11252,7 @@
         <v>56</v>
       </c>
       <c r="F196" s="5">
-        <f>SUM(G196:R196)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G196" s="5">
@@ -11399,7 +11303,7 @@
         <v>46</v>
       </c>
       <c r="F197" s="5">
-        <f>SUM(G197:R197)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G197" s="5">
@@ -11450,7 +11354,7 @@
         <v>43</v>
       </c>
       <c r="F198" s="5">
-        <f>SUM(G198:R198)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G198" s="5">
@@ -11501,7 +11405,7 @@
         <v>49</v>
       </c>
       <c r="F199" s="5">
-        <f>SUM(G199:R199)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G199" s="5">
@@ -11552,7 +11456,7 @@
         <v>56</v>
       </c>
       <c r="F200" s="5">
-        <f>SUM(G200:R200)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G200" s="5">
@@ -11603,7 +11507,7 @@
         <v>49</v>
       </c>
       <c r="F201" s="5">
-        <f>SUM(G201:R201)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G201" s="5">
@@ -11654,7 +11558,7 @@
         <v>56</v>
       </c>
       <c r="F202" s="5">
-        <f>SUM(G202:R202)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G202" s="5">
@@ -11705,7 +11609,7 @@
         <v>46</v>
       </c>
       <c r="F203" s="5">
-        <f>SUM(G203:R203)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G203" s="5">
@@ -11756,7 +11660,7 @@
         <v>23</v>
       </c>
       <c r="F204" s="5">
-        <f>SUM(G204:R204)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G204" s="5">
@@ -11807,7 +11711,7 @@
         <v>31</v>
       </c>
       <c r="F205" s="5">
-        <f>SUM(G205:R205)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G205" s="5">
@@ -11858,7 +11762,7 @@
         <v>23</v>
       </c>
       <c r="F206" s="5">
-        <f>SUM(G206:R206)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G206" s="5">
@@ -11909,7 +11813,7 @@
         <v>46</v>
       </c>
       <c r="F207" s="5">
-        <f>SUM(G207:R207)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G207" s="5">
@@ -11960,7 +11864,7 @@
         <v>20</v>
       </c>
       <c r="F208" s="5">
-        <f>SUM(G208:R208)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G208" s="5">
@@ -12011,7 +11915,7 @@
         <v>43</v>
       </c>
       <c r="F209" s="5">
-        <f>SUM(G209:R209)</f>
+        <f t="shared" ref="F209:F240" si="6">SUM(G209:R209)</f>
         <v>10</v>
       </c>
       <c r="G209" s="5">
@@ -12062,7 +11966,7 @@
         <v>43</v>
       </c>
       <c r="F210" s="5">
-        <f>SUM(G210:R210)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G210" s="5">
@@ -12113,7 +12017,7 @@
         <v>49</v>
       </c>
       <c r="F211" s="5">
-        <f>SUM(G211:R211)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G211" s="5">
@@ -12164,7 +12068,7 @@
         <v>31</v>
       </c>
       <c r="F212" s="5">
-        <f>SUM(G212:R212)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G212" s="5">
@@ -12215,7 +12119,7 @@
         <v>56</v>
       </c>
       <c r="F213" s="5">
-        <f>SUM(G213:R213)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G213" s="5">
@@ -12266,7 +12170,7 @@
         <v>56</v>
       </c>
       <c r="F214" s="5">
-        <f>SUM(G214:R214)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G214" s="5">
@@ -12317,7 +12221,7 @@
         <v>38</v>
       </c>
       <c r="F215" s="5">
-        <f>SUM(G215:R215)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G215" s="5">
@@ -12368,7 +12272,7 @@
         <v>23</v>
       </c>
       <c r="F216" s="5">
-        <f>SUM(G216:R216)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G216" s="5">
@@ -12419,7 +12323,7 @@
         <v>31</v>
       </c>
       <c r="F217" s="5">
-        <f>SUM(G217:R217)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G217" s="5">
@@ -12470,7 +12374,7 @@
         <v>20</v>
       </c>
       <c r="F218" s="5">
-        <f>SUM(G218:R218)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G218" s="5">
@@ -12521,7 +12425,7 @@
         <v>49</v>
       </c>
       <c r="F219" s="5">
-        <f>SUM(G219:R219)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G219" s="5">
@@ -12572,7 +12476,7 @@
         <v>23</v>
       </c>
       <c r="F220" s="5">
-        <f>SUM(G220:R220)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G220" s="5">
@@ -12623,7 +12527,7 @@
         <v>56</v>
       </c>
       <c r="F221" s="5">
-        <f>SUM(G221:R221)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G221" s="5">
@@ -12674,7 +12578,7 @@
         <v>49</v>
       </c>
       <c r="F222" s="5">
-        <f>SUM(G222:R222)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G222" s="5">
@@ -12725,7 +12629,7 @@
         <v>49</v>
       </c>
       <c r="F223" s="5">
-        <f>SUM(G223:R223)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G223" s="5">
@@ -12776,7 +12680,7 @@
         <v>46</v>
       </c>
       <c r="F224" s="5">
-        <f>SUM(G224:R224)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G224" s="5">
@@ -12827,7 +12731,7 @@
         <v>28</v>
       </c>
       <c r="F225" s="5">
-        <f>SUM(G225:R225)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G225" s="5">
@@ -12878,7 +12782,7 @@
         <v>46</v>
       </c>
       <c r="F226" s="5">
-        <f>SUM(G226:R226)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G226" s="5">
@@ -12929,7 +12833,7 @@
         <v>23</v>
       </c>
       <c r="F227" s="5">
-        <f>SUM(G227:R227)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G227" s="5">
@@ -12980,7 +12884,7 @@
         <v>43</v>
       </c>
       <c r="F228" s="5">
-        <f>SUM(G228:R228)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G228" s="5">
@@ -13031,7 +12935,7 @@
         <v>28</v>
       </c>
       <c r="F229" s="5">
-        <f>SUM(G229:R229)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G229" s="5">
@@ -13082,7 +12986,7 @@
         <v>49</v>
       </c>
       <c r="F230" s="5">
-        <f>SUM(G230:R230)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G230" s="5">
@@ -13133,7 +13037,7 @@
         <v>56</v>
       </c>
       <c r="F231" s="5">
-        <f>SUM(G231:R231)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G231" s="5">
@@ -13184,7 +13088,7 @@
         <v>43</v>
       </c>
       <c r="F232" s="5">
-        <f>SUM(G232:R232)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G232" s="5">
@@ -13235,7 +13139,7 @@
         <v>43</v>
       </c>
       <c r="F233" s="5">
-        <f>SUM(G233:R233)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G233" s="5">
@@ -13286,7 +13190,7 @@
         <v>38</v>
       </c>
       <c r="F234" s="5">
-        <f>SUM(G234:R234)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G234" s="5">
@@ -13325,43 +13229,43 @@
         <v>488</v>
       </c>
       <c r="G235">
-        <f>SUM(G3:G234)</f>
+        <f t="shared" ref="G235:P235" si="7">SUM(G3:G234)</f>
         <v>217</v>
       </c>
       <c r="H235">
-        <f>SUM(H3:H234)</f>
+        <f t="shared" si="7"/>
         <v>209</v>
       </c>
       <c r="I235">
-        <f>SUM(I3:I234)</f>
+        <f t="shared" si="7"/>
         <v>195</v>
       </c>
       <c r="J235">
-        <f>SUM(J3:J234)</f>
+        <f t="shared" si="7"/>
         <v>209</v>
       </c>
       <c r="K235">
-        <f>SUM(K3:K234)</f>
+        <f t="shared" si="7"/>
         <v>188</v>
       </c>
       <c r="L235">
-        <f>SUM(L3:L234)</f>
+        <f t="shared" si="7"/>
         <v>203</v>
       </c>
       <c r="M235">
-        <f>SUM(M3:M234)</f>
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
       <c r="N235">
-        <f>SUM(N3:N234)</f>
+        <f t="shared" si="7"/>
         <v>192</v>
       </c>
       <c r="O235">
-        <f>SUM(O3:O234)</f>
+        <f t="shared" si="7"/>
         <v>156</v>
       </c>
       <c r="P235">
-        <f>SUM(P3:P234)</f>
+        <f t="shared" si="7"/>
         <v>152</v>
       </c>
     </row>
@@ -13375,6 +13279,13 @@
       <c r="C237" s="1" t="s">
         <v>491</v>
       </c>
+      <c r="E237" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="F237">
+        <f>SUM(B240:B250)</f>
+        <v>212</v>
+      </c>
     </row>
     <row r="238" spans="1:16">
       <c r="A238">
@@ -13388,6 +13299,13 @@
         <f>B238</f>
         <v>12</v>
       </c>
+      <c r="E238" t="s">
+        <v>493</v>
+      </c>
+      <c r="F238">
+        <f>SUM(B246:B249)</f>
+        <v>184</v>
+      </c>
     </row>
     <row r="239" spans="1:16">
       <c r="A239">
@@ -13401,6 +13319,13 @@
         <f>C238+B239</f>
         <v>18</v>
       </c>
+      <c r="E239" t="s">
+        <v>494</v>
+      </c>
+      <c r="F239" s="7">
+        <f>F238/F237</f>
+        <v>0.86792452830188682</v>
+      </c>
     </row>
     <row r="240" spans="1:16">
       <c r="A240">
@@ -13411,7 +13336,7 @@
         <v>4</v>
       </c>
       <c r="C240">
-        <f t="shared" ref="C240:C250" si="0">C239+B240</f>
+        <f t="shared" ref="C240:C250" si="8">C239+B240</f>
         <v>22</v>
       </c>
     </row>
@@ -13424,7 +13349,7 @@
         <v>4</v>
       </c>
       <c r="C241">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -13437,7 +13362,7 @@
         <v>4</v>
       </c>
       <c r="C242">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -13450,7 +13375,7 @@
         <v>2</v>
       </c>
       <c r="C243">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
     </row>
@@ -13463,7 +13388,7 @@
         <v>5</v>
       </c>
       <c r="C244">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
     </row>
@@ -13476,7 +13401,7 @@
         <v>9</v>
       </c>
       <c r="C245">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
@@ -13489,7 +13414,7 @@
         <v>27</v>
       </c>
       <c r="C246">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
     </row>
@@ -13502,7 +13427,7 @@
         <v>35</v>
       </c>
       <c r="C247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>108</v>
       </c>
     </row>
@@ -13515,7 +13440,7 @@
         <v>122</v>
       </c>
       <c r="C248">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
     </row>
@@ -13528,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="C249">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
     </row>
@@ -13541,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="C250">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
     </row>
